--- a/LDMP/data/summary_table_ld_sdg.xlsx
+++ b/LDMP/data/summary_table_ld_sdg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth\LDMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD8C5C3-F23F-4DF2-BA8A-38FB94A44099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A81CFA-3D15-4F95-A684-3E2E4185BF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Land area with no data for productivity:</t>
   </si>
   <si>
-    <t>Land cover type in target year</t>
-  </si>
-  <si>
     <t>Grasslands</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Land cover type in baseline year</t>
-  </si>
-  <si>
     <t>The boundaries, names, and designations used in this report do not imply official endorsement or acceptance by Conservation International Foundation, or its partner organizations and contributors.  This report is available under the terms of Creative Commons Attribution 4.0 International License (CC BY 4.0).</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
     <t>Summary of change in land cover</t>
   </si>
   <si>
-    <t>Baseline area (sq. km)</t>
-  </si>
-  <si>
-    <t>Target area (sq. km)</t>
-  </si>
-  <si>
     <t>Change in area (sq. km)</t>
   </si>
   <si>
@@ -142,12 +130,6 @@
     <t>Land area with no data for soil organic carbon:</t>
   </si>
   <si>
-    <t>Percent change in soil organic carbon storage from baseline to target:</t>
-  </si>
-  <si>
-    <t>Soil organic carbon change from baseline to target</t>
-  </si>
-  <si>
     <t>Trends.Earth land cover summary table</t>
   </si>
   <si>
@@ -175,25 +157,7 @@
     <t>Percent of total land area</t>
   </si>
   <si>
-    <t>* Trends.Earth calculates soil organic carbon change based on annual land cover transitions. This table shows change in soil organic carbon based on the baseline and target years only. The target year soil organic carbon value used to produce this table accounts for all land cover transitions that ocurred between the baseline and target years. An empty cell indicates that transition was not observed over the time period.</t>
-  </si>
-  <si>
-    <t>Soil organic carbon change from baseline to target by type of land cover transition (as percentage of initial stock)*</t>
-  </si>
-  <si>
     <t>Other lands</t>
-  </si>
-  <si>
-    <t>Baseline soil organic carbon (tonnes / ha)</t>
-  </si>
-  <si>
-    <t>Target soil organic carbon (tonnes / ha)</t>
-  </si>
-  <si>
-    <t>Baseline soil organic carbon (tonnes)</t>
-  </si>
-  <si>
-    <t>Target soil organic carbon (tonnes)</t>
   </si>
   <si>
     <t>Change in soil organic carbon (tonnes)</t>
@@ -338,6 +302,42 @@
   <si>
     <t>Total land area
 (excludes water bodies and no data)</t>
+  </si>
+  <si>
+    <t>Land cover type in initial year</t>
+  </si>
+  <si>
+    <t>Initial soil organic carbon (tonnes / ha)</t>
+  </si>
+  <si>
+    <t>Initial area (sq. km)</t>
+  </si>
+  <si>
+    <t>Initial soil organic carbon (tonnes)</t>
+  </si>
+  <si>
+    <t>Final area (sq. km)</t>
+  </si>
+  <si>
+    <t>Final soil organic carbon (tonnes / ha)</t>
+  </si>
+  <si>
+    <t>Final soil organic carbon (tonnes)</t>
+  </si>
+  <si>
+    <t>Land cover type in final year</t>
+  </si>
+  <si>
+    <t>* Trends.Earth calculates soil organic carbon change based on annual land cover transitions. This table shows change in soil organic carbon based on the initial and final years only. The final year soil organic carbon value used to produce this table accounts for all land cover transitions that ocurred between the initial and final years. An empty cell indicates that transition was not observed over the time period.</t>
+  </si>
+  <si>
+    <t>Soil organic carbon change from initial year to final year by type of land cover transition (as percentage of initial stock)*</t>
+  </si>
+  <si>
+    <t>Percent change in soil organic carbon storage from initial year to final year:</t>
+  </si>
+  <si>
+    <t>Soil organic carbon change from initial year to final year</t>
   </si>
 </sst>
 </file>
@@ -1182,29 +1182,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1218,6 +1241,12 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,6 +1275,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1278,42 +1314,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2091,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
@@ -2107,18 +2107,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
+      <c r="A3" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
@@ -2126,10 +2126,10 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
       <c r="F4" s="46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -2138,7 +2138,7 @@
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F5" s="44">
         <f>SUM(F6:F9)</f>
@@ -2152,7 +2152,7 @@
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="e">
@@ -2164,7 +2164,7 @@
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="29" t="e">
@@ -2176,7 +2176,7 @@
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="58" t="e">
@@ -2188,7 +2188,7 @@
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="56" t="e">
@@ -2201,22 +2201,22 @@
       <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
+      <c r="A11" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:I74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2246,39 +2248,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="52" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
+      <c r="A3" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="F4" s="46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F5" s="44">
         <f>SUM(F6:F9)</f>
@@ -2345,18 +2347,18 @@
       <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -2370,63 +2372,63 @@
       <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
+      <c r="A13" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
+      <c r="C14" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="H15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="15" t="s">
+      <c r="J15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="124" t="s">
-        <v>11</v>
+      <c r="A16" s="133" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -2441,9 +2443,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2458,9 +2460,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -2475,9 +2477,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -2492,9 +2494,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -2509,9 +2511,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -2526,9 +2528,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -2545,7 +2547,7 @@
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="25">
         <f>SUM(C16:C22)</f>
@@ -2581,63 +2583,63 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
+      <c r="A25" s="156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
+      <c r="C26" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="36" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="124" t="s">
-        <v>11</v>
+      <c r="A28" s="133" t="s">
+        <v>88</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -2652,9 +2654,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -2669,9 +2671,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -2686,9 +2688,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -2703,9 +2705,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -2720,9 +2722,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -2737,9 +2739,9 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -2756,7 +2758,7 @@
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="25">
         <f>SUM(C28:C34)</f>
@@ -2792,63 +2794,63 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="130"/>
+      <c r="A37" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="139"/>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="C38" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
+      <c r="C38" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" s="7" t="s">
+      <c r="J39" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="36" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="124" t="s">
-        <v>11</v>
+      <c r="A40" s="133" t="s">
+        <v>88</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -2863,9 +2865,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -2880,9 +2882,9 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="120"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -2897,9 +2899,9 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="120"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -2914,9 +2916,9 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -2931,9 +2933,9 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -2948,9 +2950,9 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="120"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -2967,7 +2969,7 @@
     <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="25">
         <f>SUM(C40:C46)</f>
@@ -3003,63 +3005,63 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="132"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
+      <c r="A49" s="142" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="145"/>
     </row>
     <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="C50" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
+      <c r="C50" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="36" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="124" t="s">
-        <v>11</v>
+      <c r="A52" s="133" t="s">
+        <v>88</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -3074,9 +3076,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
+      <c r="A53" s="134"/>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -3091,9 +3093,9 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="120"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -3108,9 +3110,9 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="120"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -3125,9 +3127,9 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="120"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -3142,9 +3144,9 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="120"/>
+      <c r="A57" s="134"/>
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -3159,9 +3161,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="120"/>
+      <c r="A58" s="134"/>
       <c r="B58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -3178,7 +3180,7 @@
     <row r="59" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" s="25">
         <f>SUM(C52:C58)</f>
@@ -3214,64 +3216,64 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="136"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="138"/>
+      <c r="A61" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="149"/>
     </row>
     <row r="62" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
-      <c r="C62" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
+      <c r="C62" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="141"/>
       <c r="J62" s="51"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C63" s="61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" s="7" t="s">
+      <c r="J63" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="51" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="124" t="s">
-        <v>11</v>
+      <c r="A64" s="133" t="s">
+        <v>88</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -3286,9 +3288,9 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="120"/>
+      <c r="A65" s="134"/>
       <c r="B65" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -3303,9 +3305,9 @@
       </c>
     </row>
     <row r="66" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="120"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -3320,9 +3322,9 @@
       </c>
     </row>
     <row r="67" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="120"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -3337,9 +3339,9 @@
       </c>
     </row>
     <row r="68" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="120"/>
+      <c r="A68" s="134"/>
       <c r="B68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -3354,9 +3356,9 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="120"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -3371,9 +3373,9 @@
       </c>
     </row>
     <row r="70" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="120"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
@@ -3390,7 +3392,7 @@
     <row r="71" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="25">
         <f>SUM(C64:C70)</f>
@@ -3436,64 +3438,64 @@
       <c r="J72" s="51"/>
     </row>
     <row r="73" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="140"/>
-      <c r="C73" s="141"/>
-      <c r="D73" s="141"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="142"/>
+      <c r="A73" s="150" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="151"/>
+      <c r="C73" s="152"/>
+      <c r="D73" s="152"/>
+      <c r="E73" s="152"/>
+      <c r="F73" s="152"/>
+      <c r="G73" s="152"/>
+      <c r="H73" s="152"/>
+      <c r="I73" s="152"/>
+      <c r="J73" s="153"/>
     </row>
     <row r="74" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
-      <c r="C74" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="123"/>
-      <c r="I74" s="123"/>
+      <c r="C74" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="141"/>
+      <c r="E74" s="141"/>
+      <c r="F74" s="141"/>
+      <c r="G74" s="141"/>
+      <c r="H74" s="141"/>
+      <c r="I74" s="141"/>
       <c r="J74" s="51"/>
     </row>
     <row r="75" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C75" s="61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I75" s="7" t="s">
+      <c r="J75" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="51" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="76" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="124" t="s">
-        <v>11</v>
+      <c r="A76" s="133" t="s">
+        <v>88</v>
       </c>
       <c r="B76" s="59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -3508,9 +3510,9 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="120"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -3525,9 +3527,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="120"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -3542,9 +3544,9 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="120"/>
+      <c r="A79" s="134"/>
       <c r="B79" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -3559,9 +3561,9 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="120"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -3576,9 +3578,9 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="120"/>
+      <c r="A81" s="134"/>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -3593,9 +3595,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="120"/>
+      <c r="A82" s="134"/>
       <c r="B82" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
@@ -3612,7 +3614,7 @@
     <row r="83" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="25">
         <f>SUM(C76:C82)</f>
@@ -3658,26 +3660,33 @@
       <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
-      <c r="G85" s="126"/>
-      <c r="H85" s="126"/>
-      <c r="I85" s="126"/>
-      <c r="J85" s="126"/>
+      <c r="A85" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="135"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="135"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="135"/>
+      <c r="G85" s="135"/>
+      <c r="H85" s="135"/>
+      <c r="I85" s="135"/>
+      <c r="J85" s="135"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A28:A34"/>
@@ -3692,13 +3701,6 @@
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="C74:I74"/>
     <mergeCell ref="A76:A82"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3709,7 +3711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3721,33 +3725,33 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
+      <c r="A3" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="F4" s="46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -3755,7 +3759,7 @@
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
       <c r="E5" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F5" s="44">
         <f>SUM(F6:F9)</f>
@@ -3774,7 +3778,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="e">
@@ -3790,7 +3794,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="29" t="e">
@@ -3806,7 +3810,7 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="58" t="e">
@@ -3822,7 +3826,7 @@
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="56" t="e">
@@ -3839,7 +3843,7 @@
     <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="F11" s="27" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="G11" s="31" t="e">
         <f>I22/G22</f>
@@ -3850,52 +3854,52 @@
       <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
+      <c r="A13" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="161"/>
+      <c r="B16" s="59" t="s">
         <v>17</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
-      <c r="B16" s="59" t="s">
-        <v>21</v>
       </c>
       <c r="C16" s="26" t="e">
         <f>G16/(E16*100)</f>
@@ -3919,9 +3923,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="26" t="e">
         <f t="shared" ref="C17:C21" si="2">G17/(E17*100)</f>
@@ -3945,9 +3949,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="26" t="e">
         <f t="shared" si="2"/>
@@ -3971,9 +3975,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="26" t="e">
         <f t="shared" si="2"/>
@@ -3997,9 +4001,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="26" t="e">
         <f t="shared" si="2"/>
@@ -4023,9 +4027,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C21" s="26" t="e">
         <f t="shared" si="2"/>
@@ -4052,7 +4056,7 @@
       <c r="A22" s="9"/>
       <c r="C22" s="25"/>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="25">
         <f>SUM(E16:E21)</f>
@@ -4076,58 +4080,58 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="148" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
+      <c r="A24" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
+      <c r="C25" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="H26" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="124" t="s">
-        <v>11</v>
+      <c r="A27" s="133" t="s">
+        <v>88</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
@@ -4137,9 +4141,9 @@
       <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -4149,9 +4153,9 @@
       <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
@@ -4161,9 +4165,9 @@
       <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
@@ -4173,9 +4177,9 @@
       <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
@@ -4185,9 +4189,9 @@
       <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="48"/>
@@ -4209,36 +4213,36 @@
       <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" s="38" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="143" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
+      <c r="A34" s="157" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="36" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="126"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
+      <c r="A36" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -4270,7 +4274,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+      <selection activeCell="C24" sqref="C24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J1" s="13"/>
     </row>
@@ -4292,26 +4296,26 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="150"/>
+      <c r="A3" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="F4" s="46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -4319,7 +4323,7 @@
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
       <c r="E5" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F5" s="44">
         <f>SUM(F6:F9)</f>
@@ -4337,7 +4341,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="e">
@@ -4352,7 +4356,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="29" t="e">
@@ -4367,7 +4371,7 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="58" t="e">
@@ -4382,7 +4386,7 @@
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="56" t="e">
@@ -4397,18 +4401,18 @@
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="151" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="153"/>
+      <c r="A11" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="167"/>
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -4416,22 +4420,22 @@
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="161"/>
+      <c r="B14" s="59" t="s">
         <v>17</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
-      <c r="B14" s="59" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="23">
         <f t="shared" ref="C14:C20" si="1">J26</f>
@@ -4451,9 +4455,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="23">
         <f t="shared" si="1"/>
@@ -4473,9 +4477,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="23">
         <f t="shared" si="1"/>
@@ -4495,9 +4499,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" si="1"/>
@@ -4517,9 +4521,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="1"/>
@@ -4539,9 +4543,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" si="1"/>
@@ -4561,9 +4565,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="23">
         <f t="shared" si="1"/>
@@ -4585,7 +4589,7 @@
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="25">
         <f>SUM(C14:C20)</f>
@@ -4608,63 +4612,63 @@
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="154" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="150"/>
+      <c r="A23" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
+      <c r="C24" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="60" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="G25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="H25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="21" t="s">
+      <c r="J25" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="36" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
-        <v>11</v>
+      <c r="A26" s="133" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -4679,9 +4683,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -4696,9 +4700,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -4713,9 +4717,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -4730,9 +4734,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -4747,9 +4751,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -4764,9 +4768,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -4783,7 +4787,7 @@
     <row r="33" spans="1:10" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="25">
         <f t="shared" ref="C33:I33" si="5">SUM(C26:C32)</f>
@@ -4819,22 +4823,22 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
+      <c r="A35" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -4877,7 +4881,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -4902,34 +4906,34 @@
       <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="150"/>
+      <c r="A3" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
       <c r="D4" s="75" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I4" s="65"/>
       <c r="J4" s="65"/>
@@ -4938,7 +4942,7 @@
       <c r="A5" s="66"/>
       <c r="B5" s="65"/>
       <c r="C5" s="70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="73">
         <f>'SDG 15.3.1'!F5</f>
@@ -4963,7 +4967,7 @@
       <c r="A6" s="66"/>
       <c r="B6" s="65"/>
       <c r="C6" s="70" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D6" s="76">
         <f>'SDG 15.3.1'!F6</f>
@@ -4985,7 +4989,7 @@
       <c r="A7" s="66"/>
       <c r="B7" s="65"/>
       <c r="C7" s="70" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D7" s="74">
         <f>'SDG 15.3.1'!F8</f>
@@ -5007,7 +5011,7 @@
       <c r="A8" s="66"/>
       <c r="B8" s="65"/>
       <c r="C8" s="70" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D8" s="78">
         <f>'SDG 15.3.1'!F8</f>
@@ -5029,7 +5033,7 @@
       <c r="A9" s="66"/>
       <c r="B9" s="65"/>
       <c r="C9" s="70" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D9" s="77">
         <f>'SDG 15.3.1'!F9</f>
@@ -5072,18 +5076,18 @@
       <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
+      <c r="A12" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
@@ -5099,7 +5103,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="72"/>
@@ -5125,7 +5129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84595693-2766-4438-88C6-66C4A1683268}">
   <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5137,23 +5143,23 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
+      <c r="A3" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:26" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="108"/>
@@ -5185,610 +5191,610 @@
     </row>
     <row r="5" spans="1:26" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D6" s="100" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E6" s="100" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H6" s="101" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="159" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="J6" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="121" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="160" t="str">
+      <c r="A7" s="120"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="122" t="str">
         <f>IF(ISBLANK(A7),"",SUM(B7:G7))</f>
         <v/>
       </c>
-      <c r="K7" s="160" t="str">
+      <c r="K7" s="122" t="str">
         <f>IF(ISBLANK(A7),"",SUM(B7:H7))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="160" t="str">
+      <c r="A8" s="120"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="122" t="str">
         <f t="shared" ref="J8:J36" si="0">IF(ISBLANK(A8),"",SUM(B8:G8))</f>
         <v/>
       </c>
-      <c r="K8" s="160" t="str">
+      <c r="K8" s="122" t="str">
         <f t="shared" ref="K8:K36" si="1">IF(ISBLANK(A8),"",SUM(B8:H8))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="160" t="str">
+      <c r="A9" s="120"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" s="160" t="str">
+      <c r="K9" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="160" t="str">
+      <c r="A10" s="120"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="160" t="str">
+      <c r="K10" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="160" t="str">
+      <c r="A11" s="120"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="160" t="str">
+      <c r="K11" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="160" t="str">
+      <c r="A12" s="120"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="160" t="str">
+      <c r="K12" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="160" t="str">
+      <c r="A13" s="120"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" s="160" t="str">
+      <c r="K13" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="160" t="str">
+      <c r="A14" s="120"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" s="160" t="str">
+      <c r="K14" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="158"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="160" t="str">
+      <c r="A15" s="120"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="160" t="str">
+      <c r="K15" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="158"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="160" t="str">
+      <c r="A16" s="120"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="160" t="str">
+      <c r="K16" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="158"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="160" t="str">
+      <c r="A17" s="120"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" s="160" t="str">
+      <c r="K17" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="160" t="str">
+      <c r="A18" s="120"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" s="160" t="str">
+      <c r="K18" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="158"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="160" t="str">
+      <c r="A19" s="120"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="160" t="str">
+      <c r="K19" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="158"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="160" t="str">
+      <c r="A20" s="120"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="160" t="str">
+      <c r="K20" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="158"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="160" t="str">
+      <c r="A21" s="120"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" s="160" t="str">
+      <c r="K21" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="158"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="160" t="str">
+      <c r="A22" s="120"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="160" t="str">
+      <c r="A23" s="120"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" s="160" t="str">
+      <c r="K23" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="158"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="160" t="str">
+      <c r="A24" s="120"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" s="160" t="str">
+      <c r="K24" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="160" t="str">
+      <c r="A25" s="120"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" s="160" t="str">
+      <c r="K25" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="158"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="160" t="str">
+      <c r="A26" s="120"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" s="160" t="str">
+      <c r="K26" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="158"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="160" t="str">
+      <c r="A27" s="120"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K27" s="160" t="str">
+      <c r="K27" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="158"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="160" t="str">
+      <c r="A28" s="120"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K28" s="160" t="str">
+      <c r="K28" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="160" t="str">
+      <c r="A29" s="120"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K29" s="160" t="str">
+      <c r="K29" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="160" t="str">
+      <c r="A30" s="120"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" s="160" t="str">
+      <c r="K30" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="158"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="160" t="str">
+      <c r="A31" s="120"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K31" s="160" t="str">
+      <c r="K31" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="158"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="160" t="str">
+      <c r="A32" s="120"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K32" s="160" t="str">
+      <c r="K32" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="158"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="160" t="str">
+      <c r="A33" s="120"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K33" s="160" t="str">
+      <c r="K33" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="158"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="160" t="str">
+      <c r="A34" s="120"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K34" s="160" t="str">
+      <c r="K34" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="158"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="160" t="str">
+      <c r="A35" s="120"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K35" s="160" t="str">
+      <c r="K35" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="158"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="160" t="str">
+      <c r="A36" s="120"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K36" s="160" t="str">
+      <c r="K36" s="122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5806,610 +5812,610 @@
     </row>
     <row r="38" spans="1:11" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="66" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="97" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C39" s="100" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D39" s="100" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E39" s="100" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F39" s="100" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G39" s="100" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H39" s="101" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I39" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="J39" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="159" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="J39" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="121" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="158"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="160" t="str">
+      <c r="A40" s="120"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="122" t="str">
         <f>IF(ISBLANK(A40),"",SUM(B40:G40))</f>
         <v/>
       </c>
-      <c r="K40" s="160" t="str">
+      <c r="K40" s="122" t="str">
         <f>IF(ISBLANK(A40),"",SUM(B40:H40))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="158"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="160" t="str">
+      <c r="A41" s="120"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="122" t="str">
         <f t="shared" ref="J41:J69" si="2">IF(ISBLANK(A41),"",SUM(B41:G41))</f>
         <v/>
       </c>
-      <c r="K41" s="160" t="str">
+      <c r="K41" s="122" t="str">
         <f t="shared" ref="K41:K69" si="3">IF(ISBLANK(A41),"",SUM(B41:H41))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="158"/>
-      <c r="B42" s="155"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="160" t="str">
+      <c r="A42" s="120"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K42" s="160" t="str">
+      <c r="K42" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="158"/>
-      <c r="B43" s="155"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="160" t="str">
+      <c r="A43" s="120"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K43" s="160" t="str">
+      <c r="K43" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="158"/>
-      <c r="B44" s="155"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="160" t="str">
+      <c r="A44" s="120"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K44" s="160" t="str">
+      <c r="K44" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="158"/>
-      <c r="B45" s="155"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="160" t="str">
+      <c r="A45" s="120"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K45" s="160" t="str">
+      <c r="K45" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="158"/>
-      <c r="B46" s="155"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="160" t="str">
+      <c r="A46" s="120"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K46" s="160" t="str">
+      <c r="K46" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="158"/>
-      <c r="B47" s="155"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="160" t="str">
+      <c r="A47" s="120"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K47" s="160" t="str">
+      <c r="K47" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="158"/>
-      <c r="B48" s="155"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="160" t="str">
+      <c r="A48" s="120"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K48" s="160" t="str">
+      <c r="K48" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="158"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="160" t="str">
+      <c r="A49" s="120"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K49" s="160" t="str">
+      <c r="K49" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="158"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="160" t="str">
+      <c r="A50" s="120"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K50" s="160" t="str">
+      <c r="K50" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="158"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="156"/>
-      <c r="J51" s="160" t="str">
+      <c r="A51" s="120"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K51" s="160" t="str">
+      <c r="K51" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="158"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="160" t="str">
+      <c r="A52" s="120"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K52" s="160" t="str">
+      <c r="K52" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="158"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="160" t="str">
+      <c r="A53" s="120"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K53" s="160" t="str">
+      <c r="K53" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="158"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="160" t="str">
+      <c r="A54" s="120"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K54" s="160" t="str">
+      <c r="K54" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="158"/>
-      <c r="B55" s="155"/>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="156"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="160" t="str">
+      <c r="A55" s="120"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K55" s="160" t="str">
+      <c r="K55" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="158"/>
-      <c r="B56" s="155"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="160" t="str">
+      <c r="A56" s="120"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K56" s="160" t="str">
+      <c r="K56" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="158"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="160" t="str">
+      <c r="A57" s="120"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K57" s="160" t="str">
+      <c r="K57" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="158"/>
-      <c r="B58" s="155"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="160" t="str">
+      <c r="A58" s="120"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K58" s="160" t="str">
+      <c r="K58" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="158"/>
-      <c r="B59" s="155"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="156"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="160" t="str">
+      <c r="A59" s="120"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K59" s="160" t="str">
+      <c r="K59" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="158"/>
-      <c r="B60" s="155"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="160" t="str">
+      <c r="A60" s="120"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K60" s="160" t="str">
+      <c r="K60" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="158"/>
-      <c r="B61" s="155"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="160" t="str">
+      <c r="A61" s="120"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K61" s="160" t="str">
+      <c r="K61" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="158"/>
-      <c r="B62" s="155"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="160" t="str">
+      <c r="A62" s="120"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K62" s="160" t="str">
+      <c r="K62" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="158"/>
-      <c r="B63" s="155"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="160" t="str">
+      <c r="A63" s="120"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="118"/>
+      <c r="J63" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K63" s="160" t="str">
+      <c r="K63" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="158"/>
-      <c r="B64" s="155"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="160" t="str">
+      <c r="A64" s="120"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="118"/>
+      <c r="J64" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K64" s="160" t="str">
+      <c r="K64" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="158"/>
-      <c r="B65" s="155"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="160" t="str">
+      <c r="A65" s="120"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="118"/>
+      <c r="J65" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K65" s="160" t="str">
+      <c r="K65" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="158"/>
-      <c r="B66" s="155"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="160" t="str">
+      <c r="A66" s="120"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="119"/>
+      <c r="I66" s="118"/>
+      <c r="J66" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K66" s="160" t="str">
+      <c r="K66" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="158"/>
-      <c r="B67" s="155"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="157"/>
-      <c r="I67" s="156"/>
-      <c r="J67" s="160" t="str">
+      <c r="A67" s="120"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="118"/>
+      <c r="J67" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K67" s="160" t="str">
+      <c r="K67" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="158"/>
-      <c r="B68" s="155"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="157"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="160" t="str">
+      <c r="A68" s="120"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="119"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K68" s="160" t="str">
+      <c r="K68" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="158"/>
-      <c r="B69" s="155"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="157"/>
-      <c r="I69" s="156"/>
-      <c r="J69" s="160" t="str">
+      <c r="A69" s="120"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K69" s="160" t="str">
+      <c r="K69" s="122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6417,181 +6423,181 @@
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:11" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="66" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="103"/>
       <c r="C72" s="100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D72" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="100" t="s">
+      <c r="F72" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="100" t="s">
-        <v>7</v>
-      </c>
       <c r="G72" s="100" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H72" s="100" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I72" s="100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J72" s="100" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="161"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="161"/>
-      <c r="F73" s="161"/>
-      <c r="G73" s="161"/>
-      <c r="H73" s="161"/>
-      <c r="I73" s="161"/>
-      <c r="J73" s="162">
+        <v>17</v>
+      </c>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="123"/>
+      <c r="I73" s="123"/>
+      <c r="J73" s="124">
         <f t="shared" ref="J73:J80" si="4">SUM(C73:I73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="161"/>
-      <c r="D74" s="161"/>
-      <c r="E74" s="161"/>
-      <c r="F74" s="161"/>
-      <c r="G74" s="161"/>
-      <c r="H74" s="161"/>
-      <c r="I74" s="161"/>
-      <c r="J74" s="162">
+        <v>4</v>
+      </c>
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="123"/>
+      <c r="J74" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="161"/>
-      <c r="D75" s="161"/>
-      <c r="E75" s="161"/>
-      <c r="F75" s="161"/>
-      <c r="G75" s="161"/>
-      <c r="H75" s="161"/>
-      <c r="I75" s="161"/>
-      <c r="J75" s="162">
+        <v>5</v>
+      </c>
+      <c r="C75" s="123"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="123"/>
+      <c r="H75" s="123"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="161"/>
-      <c r="D76" s="161"/>
-      <c r="E76" s="161"/>
-      <c r="F76" s="161"/>
-      <c r="G76" s="161"/>
-      <c r="H76" s="161"/>
-      <c r="I76" s="161"/>
-      <c r="J76" s="162">
+        <v>6</v>
+      </c>
+      <c r="C76" s="123"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="123"/>
+      <c r="F76" s="123"/>
+      <c r="G76" s="123"/>
+      <c r="H76" s="123"/>
+      <c r="I76" s="123"/>
+      <c r="J76" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="161"/>
-      <c r="D77" s="161"/>
-      <c r="E77" s="161"/>
-      <c r="F77" s="161"/>
-      <c r="G77" s="161"/>
-      <c r="H77" s="161"/>
-      <c r="I77" s="161"/>
-      <c r="J77" s="162">
+        <v>60</v>
+      </c>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="123"/>
+      <c r="G77" s="123"/>
+      <c r="H77" s="123"/>
+      <c r="I77" s="123"/>
+      <c r="J77" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="161"/>
-      <c r="D78" s="161"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="161"/>
-      <c r="H78" s="161"/>
-      <c r="I78" s="161"/>
-      <c r="J78" s="162">
+        <v>61</v>
+      </c>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="161"/>
-      <c r="D79" s="161"/>
-      <c r="E79" s="161"/>
-      <c r="F79" s="161"/>
-      <c r="G79" s="161"/>
-      <c r="H79" s="161"/>
-      <c r="I79" s="161"/>
-      <c r="J79" s="162">
+        <v>8</v>
+      </c>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="123"/>
+      <c r="G79" s="123"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="123"/>
+      <c r="J79" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="161">
+        <v>68</v>
+      </c>
+      <c r="C80" s="123">
         <f t="shared" ref="C80:I80" si="5">SUM(C73:C79)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="161">
+      <c r="D80" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E80" s="161">
+      <c r="E80" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G80" s="161">
+      <c r="G80" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H80" s="161">
+      <c r="H80" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J80" s="162">
+      <c r="J80" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6599,181 +6605,181 @@
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="66" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B83" s="103"/>
       <c r="C83" s="100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D83" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="100" t="s">
+      <c r="F83" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="100" t="s">
-        <v>7</v>
-      </c>
       <c r="G83" s="100" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H83" s="100" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I83" s="100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J83" s="100" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="161"/>
-      <c r="D84" s="161"/>
-      <c r="E84" s="161"/>
-      <c r="F84" s="161"/>
-      <c r="G84" s="161"/>
-      <c r="H84" s="161"/>
-      <c r="I84" s="161"/>
-      <c r="J84" s="162">
+        <v>17</v>
+      </c>
+      <c r="C84" s="123"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="123"/>
+      <c r="G84" s="123"/>
+      <c r="H84" s="123"/>
+      <c r="I84" s="123"/>
+      <c r="J84" s="124">
         <f t="shared" ref="J84:J91" si="6">SUM(C84:I84)</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="161"/>
-      <c r="D85" s="161"/>
-      <c r="E85" s="161"/>
-      <c r="F85" s="161"/>
-      <c r="G85" s="161"/>
-      <c r="H85" s="161"/>
-      <c r="I85" s="161"/>
-      <c r="J85" s="162">
+        <v>4</v>
+      </c>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
+      <c r="G85" s="123"/>
+      <c r="H85" s="123"/>
+      <c r="I85" s="123"/>
+      <c r="J85" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="161"/>
-      <c r="D86" s="161"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="161"/>
-      <c r="G86" s="161"/>
-      <c r="H86" s="161"/>
-      <c r="I86" s="161"/>
-      <c r="J86" s="162">
+        <v>5</v>
+      </c>
+      <c r="C86" s="123"/>
+      <c r="D86" s="123"/>
+      <c r="E86" s="123"/>
+      <c r="F86" s="123"/>
+      <c r="G86" s="123"/>
+      <c r="H86" s="123"/>
+      <c r="I86" s="123"/>
+      <c r="J86" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
-      <c r="G87" s="161"/>
-      <c r="H87" s="161"/>
-      <c r="I87" s="161"/>
-      <c r="J87" s="162">
+        <v>6</v>
+      </c>
+      <c r="C87" s="123"/>
+      <c r="D87" s="123"/>
+      <c r="E87" s="123"/>
+      <c r="F87" s="123"/>
+      <c r="G87" s="123"/>
+      <c r="H87" s="123"/>
+      <c r="I87" s="123"/>
+      <c r="J87" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="161"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="161"/>
-      <c r="G88" s="161"/>
-      <c r="H88" s="161"/>
-      <c r="I88" s="161"/>
-      <c r="J88" s="162">
+        <v>60</v>
+      </c>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
+      <c r="G88" s="123"/>
+      <c r="H88" s="123"/>
+      <c r="I88" s="123"/>
+      <c r="J88" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" s="161"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="161"/>
-      <c r="F89" s="161"/>
-      <c r="G89" s="161"/>
-      <c r="H89" s="161"/>
-      <c r="I89" s="161"/>
-      <c r="J89" s="162">
+        <v>61</v>
+      </c>
+      <c r="C89" s="123"/>
+      <c r="D89" s="123"/>
+      <c r="E89" s="123"/>
+      <c r="F89" s="123"/>
+      <c r="G89" s="123"/>
+      <c r="H89" s="123"/>
+      <c r="I89" s="123"/>
+      <c r="J89" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="161"/>
-      <c r="D90" s="161"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="161"/>
-      <c r="G90" s="161"/>
-      <c r="H90" s="161"/>
-      <c r="I90" s="161"/>
-      <c r="J90" s="162">
+        <v>8</v>
+      </c>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
+      <c r="E90" s="123"/>
+      <c r="F90" s="123"/>
+      <c r="G90" s="123"/>
+      <c r="H90" s="123"/>
+      <c r="I90" s="123"/>
+      <c r="J90" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="161">
+        <v>68</v>
+      </c>
+      <c r="C91" s="123">
         <f t="shared" ref="C91:I91" si="7">SUM(C84:C90)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="161">
+      <c r="D91" s="123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E91" s="161">
+      <c r="E91" s="123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F91" s="161">
+      <c r="F91" s="123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G91" s="161">
+      <c r="G91" s="123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H91" s="161">
+      <c r="H91" s="123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I91" s="161">
+      <c r="I91" s="123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J91" s="162">
+      <c r="J91" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6782,26 +6788,26 @@
       <c r="A92" s="99"/>
     </row>
     <row r="93" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="168" t="s">
-        <v>83</v>
+      <c r="A93" s="130" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="105"/>
       <c r="B94" s="97" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C94" s="97" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D94" s="106"/>
     </row>
     <row r="95" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="B95" s="165"/>
-      <c r="C95" s="166" t="str">
+        <v>63</v>
+      </c>
+      <c r="B95" s="127"/>
+      <c r="C95" s="128" t="str">
         <f>IFERROR((B95/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
@@ -6809,10 +6815,10 @@
     </row>
     <row r="96" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="B96" s="165"/>
-      <c r="C96" s="166" t="str">
+        <v>67</v>
+      </c>
+      <c r="B96" s="127"/>
+      <c r="C96" s="128" t="str">
         <f>IFERROR((B96/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
@@ -6820,10 +6826,10 @@
     </row>
     <row r="97" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" s="165"/>
-      <c r="C97" s="166" t="str">
+        <v>64</v>
+      </c>
+      <c r="B97" s="127"/>
+      <c r="C97" s="128" t="str">
         <f>IFERROR((B97/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
@@ -6833,26 +6839,26 @@
       <c r="A98" s="98"/>
     </row>
     <row r="99" spans="1:4" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="168" t="s">
-        <v>85</v>
+      <c r="A99" s="130" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="100"/>
       <c r="B100" s="115" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C100" s="116" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D100" s="102"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="B101" s="163"/>
-      <c r="C101" s="167" t="str">
+        <v>66</v>
+      </c>
+      <c r="B101" s="125"/>
+      <c r="C101" s="129" t="str">
         <f>IFERROR((B101/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
@@ -6860,10 +6866,10 @@
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="163"/>
-      <c r="C102" s="167" t="str">
+        <v>65</v>
+      </c>
+      <c r="B102" s="125"/>
+      <c r="C102" s="129" t="str">
         <f>IFERROR((B102/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
@@ -6871,10 +6877,10 @@
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="B103" s="163"/>
-      <c r="C103" s="167" t="str">
+        <v>63</v>
+      </c>
+      <c r="B103" s="125"/>
+      <c r="C103" s="129" t="str">
         <f>IFERROR((B103/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
@@ -6882,10 +6888,10 @@
     </row>
     <row r="104" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" s="164"/>
-      <c r="C104" s="167" t="str">
+        <v>64</v>
+      </c>
+      <c r="B104" s="126"/>
+      <c r="C104" s="129" t="str">
         <f>IFERROR((B104/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
